--- a/docs/clarksonsoffshore/rota/rota.xlsx
+++ b/docs/clarksonsoffshore/rota/rota.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Customers Contacts by Region" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Customer List'!$A$1:$L$37</definedName>
-    <definedName name="Z_10303AB4_7C61_448B_960B_82D0DEC8E33A_.wvu.PrintArea" localSheetId="0" hidden="1">'Customer List'!$A$1:$L$37</definedName>
-    <definedName name="Z_3E8F9723_C2A6_4C94_AAC4_E7D6E27FFEA4_.wvu.Cols" localSheetId="0" hidden="1">'Customer List'!$A:$A,'Customer List'!$D:$I,'Customer List'!$K:$K,'Customer List'!#REF!</definedName>
-    <definedName name="Z_3E8F9723_C2A6_4C94_AAC4_E7D6E27FFEA4_.wvu.PrintArea" localSheetId="0" hidden="1">'Customer List'!$A$1:$L$37</definedName>
-    <definedName name="Z_8D4B289B_AEDA_45FD_9A7D_26D7C086CEDC_.wvu.Cols" localSheetId="0" hidden="1">'Customer List'!$A:$A,'Customer List'!$C:$D,'Customer List'!$J:$L</definedName>
-    <definedName name="Z_8D4B289B_AEDA_45FD_9A7D_26D7C086CEDC_.wvu.PrintArea" localSheetId="0" hidden="1">'Customer List'!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Customer List'!$A$1:$G$20</definedName>
+    <definedName name="Z_10303AB4_7C61_448B_960B_82D0DEC8E33A_.wvu.PrintArea" localSheetId="0" hidden="1">'Customer List'!$A$1:$G$20</definedName>
+    <definedName name="Z_3E8F9723_C2A6_4C94_AAC4_E7D6E27FFEA4_.wvu.Cols" localSheetId="0" hidden="1">'Customer List'!#REF!,'Customer List'!$B:$D,'Customer List'!$F:$F,'Customer List'!#REF!</definedName>
+    <definedName name="Z_3E8F9723_C2A6_4C94_AAC4_E7D6E27FFEA4_.wvu.PrintArea" localSheetId="0" hidden="1">'Customer List'!$A$1:$G$20</definedName>
+    <definedName name="Z_8D4B289B_AEDA_45FD_9A7D_26D7C086CEDC_.wvu.Cols" localSheetId="0" hidden="1">'Customer List'!#REF!,'Customer List'!#REF!,'Customer List'!$E:$G</definedName>
+    <definedName name="Z_8D4B289B_AEDA_45FD_9A7D_26D7C086CEDC_.wvu.PrintArea" localSheetId="0" hidden="1">'Customer List'!$A$1:$G$20</definedName>
   </definedNames>
   <calcPr calcId="0" calcMode="manual" concurrentCalc="0"/>
   <pivotCaches>
@@ -36,7 +36,7 @@
     <author xml:space="preserve">   </author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,33 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Geneva"/>
-          </rPr>
-          <t>If you need fewer rows than provided in the sample data, just select the rows you don't need and then, on the Tables tab of the Ribbon, click Delete and then click Table Rows. Or, right-click, point to Delete and then click Table Rows.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J35" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Geneva"/>
-          </rPr>
-          <t>Add any formatting you want for numbers such as phone and fax as you type. These columns are formatted as text to make it simple for you to use this list as a mail merge data source in Word.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B38" authorId="0">
+    <comment ref="A21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,26 +92,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="170">
-  <si>
-    <t>Customer ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="49">
   <si>
     <t>Company Name</t>
   </si>
   <si>
-    <t>Contact Name</t>
-  </si>
-  <si>
-    <t>Contact Title</t>
-  </si>
-  <si>
-    <t>Billing Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>State or Province</t>
   </si>
   <si>
@@ -159,15 +118,6 @@
     <t>Company 1</t>
   </si>
   <si>
-    <t>Contact 1</t>
-  </si>
-  <si>
-    <t>Title 1</t>
-  </si>
-  <si>
-    <t>Address 1</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
@@ -186,168 +136,45 @@
     <t>Company 2</t>
   </si>
   <si>
-    <t>Contact 2</t>
-  </si>
-  <si>
-    <t>Title 2</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
     <t>Company 3</t>
   </si>
   <si>
-    <t>Contact 3</t>
-  </si>
-  <si>
-    <t>Title 3</t>
-  </si>
-  <si>
-    <t>Address 3</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
     <t>Washington</t>
   </si>
   <si>
     <t>Company 4</t>
   </si>
   <si>
-    <t>Contact 4</t>
-  </si>
-  <si>
-    <t>Title 4</t>
-  </si>
-  <si>
-    <t>Address 4</t>
-  </si>
-  <si>
     <t>Company 5</t>
   </si>
   <si>
-    <t>Contact 5</t>
-  </si>
-  <si>
-    <t>Title 5</t>
-  </si>
-  <si>
-    <t>Address 5</t>
-  </si>
-  <si>
     <t>Company 6</t>
   </si>
   <si>
-    <t>Contact 6</t>
-  </si>
-  <si>
-    <t>Title 6</t>
-  </si>
-  <si>
-    <t>Address 6</t>
-  </si>
-  <si>
     <t>Company 7</t>
   </si>
   <si>
-    <t>Contact 7</t>
-  </si>
-  <si>
-    <t>Title 7</t>
-  </si>
-  <si>
-    <t>Address 7</t>
-  </si>
-  <si>
     <t>Company 8</t>
   </si>
   <si>
-    <t>Contact 8</t>
-  </si>
-  <si>
-    <t>Title 8</t>
-  </si>
-  <si>
-    <t>Address 8</t>
-  </si>
-  <si>
     <t>Company 9</t>
   </si>
   <si>
-    <t>Contact 9</t>
-  </si>
-  <si>
-    <t>Title 9</t>
-  </si>
-  <si>
-    <t>Address 9</t>
-  </si>
-  <si>
     <t>Company 10</t>
   </si>
   <si>
-    <t>Contact 10</t>
-  </si>
-  <si>
-    <t>Title 10</t>
-  </si>
-  <si>
-    <t>Address 10</t>
-  </si>
-  <si>
     <t>Company 12</t>
   </si>
   <si>
-    <t>Contact 12</t>
-  </si>
-  <si>
-    <t>Title 12</t>
-  </si>
-  <si>
-    <t>Address 12</t>
-  </si>
-  <si>
     <t>Company 13</t>
   </si>
   <si>
-    <t>Contact 13</t>
-  </si>
-  <si>
-    <t>Title 13</t>
-  </si>
-  <si>
-    <t>Address 13</t>
-  </si>
-  <si>
     <t>Company 14</t>
   </si>
   <si>
-    <t>Contact 14</t>
-  </si>
-  <si>
-    <t>Title 14</t>
-  </si>
-  <si>
-    <t>Address 14</t>
-  </si>
-  <si>
     <t>Company 15</t>
   </si>
   <si>
-    <t>Contact 15</t>
-  </si>
-  <si>
-    <t>Title 15</t>
-  </si>
-  <si>
-    <t>Address 15</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
   </si>
   <si>
@@ -360,268 +187,52 @@
     <t>Company 16</t>
   </si>
   <si>
-    <t>Contact 16</t>
-  </si>
-  <si>
-    <t>Title 16</t>
-  </si>
-  <si>
-    <t>Address 16</t>
-  </si>
-  <si>
     <t>Company 17</t>
   </si>
   <si>
-    <t>Contact 17</t>
-  </si>
-  <si>
-    <t>Title 17</t>
-  </si>
-  <si>
-    <t>Address 17</t>
-  </si>
-  <si>
     <t>Company 18</t>
   </si>
   <si>
-    <t>Contact 18</t>
-  </si>
-  <si>
-    <t>Title 18</t>
-  </si>
-  <si>
-    <t>Address 18</t>
-  </si>
-  <si>
     <t>Company 19</t>
   </si>
   <si>
-    <t>Contact 19</t>
-  </si>
-  <si>
-    <t>Title 19</t>
-  </si>
-  <si>
-    <t>Address 19</t>
-  </si>
-  <si>
     <t>Company 20</t>
   </si>
   <si>
-    <t>Contact 20</t>
-  </si>
-  <si>
-    <t>Title 20</t>
-  </si>
-  <si>
-    <t>Address 20</t>
-  </si>
-  <si>
     <t>Company 21</t>
   </si>
   <si>
-    <t>Contact 21</t>
-  </si>
-  <si>
-    <t>Title 21</t>
-  </si>
-  <si>
-    <t>Address 21</t>
-  </si>
-  <si>
     <t>Company 22</t>
   </si>
   <si>
-    <t>Contact 22</t>
-  </si>
-  <si>
-    <t>Title 22</t>
-  </si>
-  <si>
-    <t>Address 22</t>
-  </si>
-  <si>
     <t>Company 23</t>
   </si>
   <si>
-    <t>Contact 23</t>
-  </si>
-  <si>
-    <t>Title 23</t>
-  </si>
-  <si>
-    <t>Address 23</t>
-  </si>
-  <si>
     <t>Company 24</t>
   </si>
   <si>
-    <t>Contact 24</t>
-  </si>
-  <si>
-    <t>Title 24</t>
-  </si>
-  <si>
-    <t>Address 24</t>
-  </si>
-  <si>
     <t>Company 25</t>
   </si>
   <si>
-    <t>Contact 25</t>
-  </si>
-  <si>
-    <t>Title 25</t>
-  </si>
-  <si>
-    <t>Address 25</t>
-  </si>
-  <si>
     <t>Company 26</t>
   </si>
   <si>
-    <t>Contact 26</t>
-  </si>
-  <si>
-    <t>Title 26</t>
-  </si>
-  <si>
-    <t>Address 26</t>
-  </si>
-  <si>
     <t>Company 27</t>
   </si>
   <si>
-    <t>Contact 27</t>
-  </si>
-  <si>
-    <t>Title 27</t>
-  </si>
-  <si>
-    <t>Address 27</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
-    <t>33-1-5555-1234</t>
-  </si>
-  <si>
-    <t>33-1-5555-4321</t>
-  </si>
-  <si>
-    <t>Contact 28</t>
-  </si>
-  <si>
-    <t>Title 28</t>
-  </si>
-  <si>
-    <t>Address 28</t>
-  </si>
-  <si>
-    <t>Contact 29</t>
-  </si>
-  <si>
-    <t>Title 29</t>
-  </si>
-  <si>
-    <t>Address 29</t>
-  </si>
-  <si>
-    <t>Contact 30</t>
-  </si>
-  <si>
-    <t>Title 30</t>
-  </si>
-  <si>
-    <t>Address 30</t>
-  </si>
-  <si>
-    <t>Contact 31</t>
-  </si>
-  <si>
-    <t>Title 31</t>
-  </si>
-  <si>
-    <t>Address 31</t>
-  </si>
-  <si>
-    <t>Contact 32</t>
-  </si>
-  <si>
-    <t>Title 32</t>
-  </si>
-  <si>
-    <t>Address 32</t>
-  </si>
-  <si>
-    <t>Contact 33</t>
-  </si>
-  <si>
-    <t>Title 33</t>
-  </si>
-  <si>
-    <t>Address 33</t>
-  </si>
-  <si>
-    <t>Contact 34</t>
-  </si>
-  <si>
-    <t>Title 34</t>
-  </si>
-  <si>
-    <t>Address 34</t>
-  </si>
-  <si>
-    <t>Contact 35</t>
-  </si>
-  <si>
-    <t>Title 35</t>
-  </si>
-  <si>
-    <t>Address 35</t>
-  </si>
-  <si>
-    <t>Contact 36</t>
-  </si>
-  <si>
-    <t>Title 36</t>
-  </si>
-  <si>
-    <t>Address 36</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
     <t>Region</t>
   </si>
   <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
-    <t>81-3-5555-4321</t>
-  </si>
-  <si>
-    <t>81-3-5555-1234</t>
-  </si>
-  <si>
     <t>Company 11</t>
-  </si>
-  <si>
-    <t>Contact 11</t>
-  </si>
-  <si>
-    <t>Title 11</t>
-  </si>
-  <si>
-    <t>Address 11</t>
   </si>
   <si>
     <t>Contacts per Customer</t>
@@ -1816,15 +1427,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CustomerList" displayName="CustomerList" ref="A1:L37" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L37"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="Customer ID"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CustomerList" displayName="CustomerList" ref="A1:G20" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G20"/>
+  <tableColumns count="7">
     <tableColumn id="2" name="Company Name"/>
-    <tableColumn id="3" name="Contact Name"/>
-    <tableColumn id="4" name="Contact Title"/>
-    <tableColumn id="5" name="Billing Address"/>
-    <tableColumn id="6" name="City"/>
     <tableColumn id="7" name="State or Province"/>
     <tableColumn id="8" name="Postal Code"/>
     <tableColumn id="9" name="Country/ Region"/>
@@ -2161,31 +1767,26 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="24.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11.1640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="14.33203125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="18.1640625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="23.33203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="18.1640625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="23.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="40.5" customHeight="1">
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="40.5" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2207,1365 +1808,453 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="C2" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="C4" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="8">
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8">
         <v>12345</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8">
         <v>12345</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15">
+      <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15">
+      <c r="A19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8">
         <v>12345</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="D19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15">
+      <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8">
+        <v>12345</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15">
-      <c r="A13" s="7">
+      <c r="G20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8">
-        <v>12345</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12"/>
+    </row>
+    <row r="21" spans="1:7"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
-    <hyperlink ref="L4" r:id="rId3"/>
-    <hyperlink ref="L5" r:id="rId4"/>
-    <hyperlink ref="L6" r:id="rId5"/>
-    <hyperlink ref="L7" r:id="rId6"/>
-    <hyperlink ref="L8" r:id="rId7"/>
-    <hyperlink ref="L9" r:id="rId8"/>
-    <hyperlink ref="L10" r:id="rId9"/>
-    <hyperlink ref="L11" r:id="rId10"/>
-    <hyperlink ref="L12" r:id="rId11"/>
-    <hyperlink ref="L13" r:id="rId12"/>
-    <hyperlink ref="L14" r:id="rId13"/>
-    <hyperlink ref="L15" r:id="rId14"/>
-    <hyperlink ref="L16:L28" r:id="rId15" display="someone@example.com"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G11" r:id="rId10"/>
+    <hyperlink ref="G12" r:id="rId11"/>
+    <hyperlink ref="G13" r:id="rId12"/>
+    <hyperlink ref="G14" r:id="rId13"/>
+    <hyperlink ref="G15" r:id="rId14"/>
+    <hyperlink ref="G16:G20" r:id="rId15" display="someone@example.com"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.7" bottom="0.7" header="0.51" footer="0.5"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>
@@ -3603,20 +2292,20 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6">
         <v>8</v>
@@ -3624,7 +2313,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
@@ -3632,7 +2321,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="B6" s="6">
         <v>3</v>
@@ -3640,7 +2329,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -3648,7 +2337,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
@@ -3656,7 +2345,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -3664,7 +2353,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6">
         <v>6</v>
@@ -3672,7 +2361,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -3680,7 +2369,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -3688,7 +2377,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6">
         <v>3</v>
@@ -3696,7 +2385,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -3704,7 +2393,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B15" s="6">
         <v>14</v>
@@ -3712,7 +2401,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -3720,7 +2409,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -3728,7 +2417,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -3736,7 +2425,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B19" s="6">
         <v>2</v>
@@ -3744,7 +2433,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -3752,7 +2441,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -3760,7 +2449,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -3768,7 +2457,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -3776,7 +2465,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B24" s="6">
         <v>3</v>
@@ -3784,7 +2473,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -3792,7 +2481,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -3800,7 +2489,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="B27" s="6">
         <v>8</v>
@@ -3808,7 +2497,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -3816,7 +2505,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -3824,7 +2513,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
@@ -3832,7 +2521,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -3840,7 +2529,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -3848,7 +2537,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -3856,7 +2545,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
@@ -3864,7 +2553,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="B35" s="6">
         <v>36</v>
